--- a/test/test_files/Excel/load_test.xlsx
+++ b/test/test_files/Excel/load_test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3244018C-1C2B-46F0-916B-A026C5365FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5105975C-32BB-484A-B6BE-666E0612564E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -41,6 +42,15 @@
   </si>
   <si>
     <t>Zone 2</t>
+  </si>
+  <si>
+    <t>Other stuff</t>
+  </si>
+  <si>
+    <t>Zone 3</t>
+  </si>
+  <si>
+    <t>Zone 4</t>
   </si>
 </sst>
 </file>
@@ -394,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,4 +446,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E4F0B4-F80E-4D72-8CEE-BAD4BB46099D}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>